--- a/contact.xlsx
+++ b/contact.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita\Desktop\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Last anketa</t>
-  </si>
-  <si>
-    <t>all_ok_ankets</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,22 +52,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -354,36 +324,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col width="11.28515625" customWidth="1" min="1" max="1"/>
+    <col width="11.42578125" customWidth="1" min="2" max="2"/>
+    <col width="14.28515625" customWidth="1" min="4" max="4"/>
+    <col width="12.5703125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last anketa</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>all_ok_ankets</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="Z1" t="n">
         <v>3</v>
       </c>
-      <c r="Z1">
-        <v>2</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>741710024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -1,33 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita\Desktop\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Last anketa</t>
+  </si>
+  <si>
+    <t>all_ok_ankets</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,13 +73,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,60 +354,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.28515625" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" min="4" max="4"/>
-    <col width="12.5703125" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Last anketa</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>all_ok_ankets</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="Z1" t="n">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>741710024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
+      <c r="Z1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
